--- a/202304/04_単体テスト/03_外部レビュー/チーム２/社員情報一覧画面エビデンス　張 　修正.xlsx
+++ b/202304/04_単体テスト/03_外部レビュー/チーム２/社員情報一覧画面エビデンス　張 　修正.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传\2023-04\202304\04_単体テスト\03_外部レビュー\チーム２\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F74499-3A66-4CE4-9E76-54F4DF85D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97217750-26E1-4F53-80BC-1F06A1CC12E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="90">
   <si>
     <t>1.画面初期表示</t>
   </si>
@@ -328,6 +328,10 @@
   </si>
   <si>
     <t>UPDATE_USER</t>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>01</t>
@@ -475,7 +479,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q642"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A702" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A644" sqref="A644"/>
+    <sheetView tabSelected="1" topLeftCell="A444" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P471" sqref="P471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4200,7 +4204,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17" ht="14.5" x14ac:dyDescent="0.2">
       <c r="A471" s="6" t="s">
         <v>84</v>
       </c>
@@ -4245,6 +4249,12 @@
       </c>
       <c r="O471" s="3">
         <v>1</v>
+      </c>
+      <c r="P471" s="5">
+        <v>45042.264004629629</v>
+      </c>
+      <c r="Q471" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="472" spans="1:17" x14ac:dyDescent="0.2">
@@ -4291,7 +4301,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M472" s="10" t="b">
+      <c r="M472" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4309,7 +4319,7 @@
       </c>
       <c r="Q472" s="10" t="b">
         <f t="shared" ref="Q472" si="3">Q470=Q471</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:17" x14ac:dyDescent="0.2">
